--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapto\OneDrive\Pulpit\Social-Media\Social-Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D0A0AB-96BE-4AF0-8F2C-311AC4C0485F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3973EA-7899-43E7-9113-3B524124C0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,13 +30,13 @@
     <t>Polskie Badania Czytelnictwa</t>
   </si>
   <si>
-    <t xml:space="preserve">Data wykonania raportu: </t>
-  </si>
-  <si>
     <t>Badanie: Social Media</t>
   </si>
   <si>
     <t>Pismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data pobrania raportu: </t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A111"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -498,7 +498,7 @@
     </row>
     <row r="3" spans="1:9" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -518,7 +518,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapto\OneDrive\Pulpit\Social-Media\Social-Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3973EA-7899-43E7-9113-3B524124C0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E204A30-3297-4236-95FD-E80434B121CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TR360" sheetId="1" r:id="rId1"/>
+    <sheet name="Social Media" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
